--- a/pred_ohlcv/54_21/2019-11-14 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6442.007099999994</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5753.547399999994</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-19218.13840000001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-18562.05090000001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-18575.37090000001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-18586.49090000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-21745.60910000001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-24436.70210000001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31688.11380000002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-36801.84050000002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-36140.84050000002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-38289.39790000002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-43881.80040000002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-110087.8334</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-94298.16740000002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-101640.3231</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-128312.4047</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-117348.4537</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-121180.0388</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-116432.5008</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-113775.5008</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-92259.50080000001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-87971.50080000001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-88233.7608</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-88533.7608</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-14 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6442.007099999994</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>5753.547399999994</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-19218.13840000001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-18562.05090000001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-18575.37090000001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-18586.49090000001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-21745.60910000001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-24436.70210000001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31688.11380000002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-36801.84050000002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-36140.84050000002</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-38289.39790000002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-43881.80040000002</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-110087.8334</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-94298.16740000002</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-101640.3231</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-128624.4537</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-126799.4537</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-124299.4537</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-92259.50080000001</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-87971.50080000001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-88233.7608</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-88533.7608</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-88796.0203</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-89868.9219</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-89868.9219</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-89868.9219</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-89868.9219</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
